--- a/Data/Electricity Storage.xlsx
+++ b/Data/Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Progressive Hedging /Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Benders-Decomposition/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C2EC0-FF3B-8046-8063-AB1BC569D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8603415D-176B-6941-A030-BBD935C79133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="3" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial values" sheetId="7" r:id="rId1"/>
@@ -146,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344E307-70EA-9749-BC3D-54A83804696F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,8 +544,8 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <f>0.03/0.9</f>
-        <v>3.3333333333333333E-2</v>
+        <f>ROUND(0.03/0.9,4)</f>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -589,7 +590,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="225" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.42857142857142799</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="C2">
         <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.32142857142857101</v>
+        <v>0.32140000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.39225442482365303</v>
+        <v>0.39229999999999998</v>
       </c>
       <c r="C3">
-        <v>0.79106624697365602</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="D3">
-        <v>1.1431921420637501</v>
+        <v>1.1432</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,16 +668,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>EXP(-B3)</f>
-        <v>0.6755322199285716</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:D5" si="0">EXP(-C3)</f>
-        <v>0.45336114253533677</v>
+        <v>0.45340000000000003</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.31879974177284642</v>
+        <v>0.31879999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,15 +682,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>EXP(B4)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:D6" si="1">EXP(C4)</f>
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -706,7 +701,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="225" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.53571428571428503</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="C2">
-        <v>0.46428571428571402</v>
+        <v>0.46429999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.45507553413483898</v>
+        <v>0.4551</v>
       </c>
       <c r="C3">
-        <v>1.05440770945111</v>
+        <v>1.0544</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,12 +767,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f>EXP(-B3)</f>
-        <v>0.63440004727971477</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="C5">
-        <f>EXP(-C3)</f>
-        <v>0.34839871947650675</v>
+        <v>0.34839999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,11 +778,9 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>EXP(B4)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>EXP(C4)</f>
         <v>1</v>
       </c>
     </row>
@@ -802,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5D001-EACD-464B-BF0A-91777AE16B43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScale="225" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.73333719162547006</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -856,9 +847,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <f>EXP(-B3)</f>
-        <v>0.48030344793520796</v>
+      <c r="B5" s="3">
+        <f>ROUND(EXP(-B3),4)</f>
+        <v>0.4803</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/Data/Electricity Storage.xlsx
+++ b/Data/Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirsener/Desktop/Benders-Decomposition/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8603415D-176B-6941-A030-BBD935C79133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D63B9-AAEB-EE4A-ABD1-C32B0CEAC38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20060" xr2:uid="{EDF38AB8-B67A-6545-84A8-C231FAB8949A}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial values" sheetId="7" r:id="rId1"/>
@@ -146,11 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +467,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,8 +488,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>350/0.9</f>
-        <v>388.88888888888886</v>
+        <f>350*1000/0.9</f>
+        <v>388888.88888888888</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -544,8 +543,8 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <f>ROUND(0.03/0.9,4)</f>
-        <v>3.3300000000000003E-2</v>
+        <f>ROUND(0.03*1000/0.9,4)</f>
+        <v>33.333300000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,7 +560,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -847,7 +846,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <f>ROUND(EXP(-B3),4)</f>
         <v>0.4803</v>
       </c>
